--- a/Data/EC/NIT-9004785918.xlsx
+++ b/Data/EC/NIT-9004785918.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D572BE2C-DFC0-4141-B58F-15390E31391C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C67DC0D5-282F-4AE5-A484-4F3188A36798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{077E954F-1841-40CA-8FC8-2033D7ADD925}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{505CF43B-3B10-4B41-9416-BA0C865EA225}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="81">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,6 +65,108 @@
     <t>CC</t>
   </si>
   <si>
+    <t>3830221</t>
+  </si>
+  <si>
+    <t>JORGE MARIO RAMOS VELEZ</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1050037189</t>
+  </si>
+  <si>
+    <t>ERIS MIGUEL CARBAL GARCIA</t>
+  </si>
+  <si>
     <t>77193394</t>
   </si>
   <si>
@@ -80,43 +182,40 @@
     <t>JORGE LUIS BELTRAN CADENA</t>
   </si>
   <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
     <t>1901</t>
   </si>
   <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
     <t>85461168</t>
   </si>
   <si>
     <t>ELKIN ENRIQUE ALVAREZ SIERRA</t>
   </si>
   <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>3830221</t>
-  </si>
-  <si>
-    <t>JORGE MARIO RAMOS VELEZ</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1909</t>
+    <t>1064111156</t>
+  </si>
+  <si>
+    <t>ALVARO LUIS ROMERO NAVAS</t>
+  </si>
+  <si>
+    <t>72271117</t>
+  </si>
+  <si>
+    <t>LUIS MIGUEL SUAREZ ROBLES</t>
   </si>
   <si>
     <t>1065621749</t>
@@ -131,115 +230,22 @@
     <t>HUGO ALBERTO MOLINA DIAZ</t>
   </si>
   <si>
-    <t>1910</t>
-  </si>
-  <si>
     <t>10301758</t>
   </si>
   <si>
     <t>VICTOR DANIEL BETANCOURT OTERO</t>
   </si>
   <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1064111156</t>
-  </si>
-  <si>
-    <t>ALVARO LUIS ROMERO NAVAS</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
     <t>1119838865</t>
   </si>
   <si>
     <t>ENRIQUE JAIME ROMERO SOLANO</t>
   </si>
   <si>
-    <t>2007</t>
-  </si>
-  <si>
     <t>9143885</t>
   </si>
   <si>
     <t>EIDYS JOSE PIÑERES TOVAR</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>1050037189</t>
-  </si>
-  <si>
-    <t>ERIS MIGUEL CARBAL GARCIA</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2112</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -653,7 +659,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64DD379A-AD02-AB85-982E-ED3935B07648}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28DC5C58-364C-6DEE-B459-E04FE8A0F8E0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1004,8 +1010,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91861AE8-CA20-4814-9AE0-706A91DD46F0}">
-  <dimension ref="B2:J115"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C986B23C-BAD8-4E3A-B255-1F44A1F7AD34}">
+  <dimension ref="B2:J122"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1029,7 +1035,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1074,7 +1080,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1106,12 +1112,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>7803405</v>
+        <v>8169272</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1122,14 +1128,14 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C13" s="5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F13" s="5">
         <v>37</v>
@@ -1159,13 +1165,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1182,10 +1188,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>154666</v>
+        <v>20352</v>
       </c>
       <c r="G16" s="18">
-        <v>4000000</v>
+        <v>954000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1196,19 +1202,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F17" s="18">
-        <v>61866</v>
+        <v>38160</v>
       </c>
       <c r="G17" s="18">
-        <v>1600000</v>
+        <v>954000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1219,19 +1225,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="16" t="s">
-        <v>15</v>
-      </c>
       <c r="F18" s="18">
-        <v>64000</v>
+        <v>38160</v>
       </c>
       <c r="G18" s="18">
-        <v>1600000</v>
+        <v>954000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1242,19 +1248,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>64000</v>
+        <v>38160</v>
       </c>
       <c r="G19" s="18">
-        <v>1600000</v>
+        <v>954000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1265,19 +1271,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>64000</v>
+        <v>38160</v>
       </c>
       <c r="G20" s="18">
-        <v>1600000</v>
+        <v>954000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1288,19 +1294,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>24000</v>
+        <v>38160</v>
       </c>
       <c r="G21" s="18">
-        <v>900000</v>
+        <v>954000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1311,19 +1317,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>64000</v>
+        <v>38160</v>
       </c>
       <c r="G22" s="18">
-        <v>1600000</v>
+        <v>954000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1334,19 +1340,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>64000</v>
+        <v>38160</v>
       </c>
       <c r="G23" s="18">
-        <v>1600000</v>
+        <v>954000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1357,13 +1363,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
         <v>38160</v>
@@ -1380,19 +1386,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>64000</v>
+        <v>38160</v>
       </c>
       <c r="G25" s="18">
-        <v>1600000</v>
+        <v>954000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1403,19 +1409,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
-        <v>64000</v>
+        <v>38160</v>
       </c>
       <c r="G26" s="18">
-        <v>1600000</v>
+        <v>954000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1426,13 +1432,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>25</v>
       </c>
       <c r="F27" s="18">
         <v>38160</v>
@@ -1449,13 +1455,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="16" t="s">
         <v>23</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>26</v>
       </c>
       <c r="F28" s="18">
         <v>38160</v>
@@ -1472,19 +1478,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F29" s="18">
-        <v>46933</v>
+        <v>38160</v>
       </c>
       <c r="G29" s="18">
-        <v>1600000</v>
+        <v>954000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1495,19 +1501,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F30" s="18">
-        <v>112000</v>
+        <v>38160</v>
       </c>
       <c r="G30" s="18">
-        <v>2800000</v>
+        <v>954000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1518,19 +1524,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F31" s="18">
-        <v>64000</v>
+        <v>38160</v>
       </c>
       <c r="G31" s="18">
-        <v>1600000</v>
+        <v>954000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1541,19 +1547,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F32" s="18">
-        <v>33920</v>
+        <v>38160</v>
       </c>
       <c r="G32" s="18">
-        <v>1696000</v>
+        <v>954000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1564,13 +1570,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F33" s="18">
         <v>38160</v>
@@ -1587,13 +1593,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F34" s="18">
         <v>38160</v>
@@ -1610,19 +1616,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F35" s="18">
-        <v>64000</v>
+        <v>38160</v>
       </c>
       <c r="G35" s="18">
-        <v>1600000</v>
+        <v>954000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1633,19 +1639,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F36" s="18">
-        <v>48000</v>
+        <v>38160</v>
       </c>
       <c r="G36" s="18">
-        <v>1236000</v>
+        <v>954000</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1656,19 +1662,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D37" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>34</v>
-      </c>
       <c r="F37" s="18">
-        <v>67840</v>
+        <v>38160</v>
       </c>
       <c r="G37" s="18">
-        <v>1696000</v>
+        <v>954000</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1679,19 +1685,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F38" s="18">
-        <v>112000</v>
+        <v>38160</v>
       </c>
       <c r="G38" s="18">
-        <v>2800000</v>
+        <v>954000</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1702,19 +1708,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F39" s="18">
-        <v>67840</v>
+        <v>38160</v>
       </c>
       <c r="G39" s="18">
-        <v>1696000</v>
+        <v>954000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1725,19 +1731,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F40" s="18">
-        <v>112000</v>
+        <v>38160</v>
       </c>
       <c r="G40" s="18">
-        <v>2800000</v>
+        <v>954000</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1748,19 +1754,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F41" s="18">
-        <v>64000</v>
+        <v>38160</v>
       </c>
       <c r="G41" s="18">
-        <v>1600000</v>
+        <v>954000</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1771,10 +1777,10 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
         <v>37</v>
@@ -1794,19 +1800,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F43" s="18">
-        <v>64000</v>
+        <v>38160</v>
       </c>
       <c r="G43" s="18">
-        <v>1600000</v>
+        <v>954000</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1817,19 +1823,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F44" s="18">
-        <v>112000</v>
+        <v>38160</v>
       </c>
       <c r="G44" s="18">
-        <v>2800000</v>
+        <v>954000</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1840,13 +1846,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F45" s="18">
         <v>38160</v>
@@ -1863,19 +1869,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="F46" s="18">
-        <v>67840</v>
+        <v>45867</v>
       </c>
       <c r="G46" s="18">
-        <v>1696000</v>
+        <v>978500</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1886,19 +1892,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F47" s="18">
-        <v>38160</v>
+        <v>86000</v>
       </c>
       <c r="G47" s="18">
-        <v>954000</v>
+        <v>978500</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1909,19 +1915,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="F48" s="18">
-        <v>38160</v>
+        <v>86000</v>
       </c>
       <c r="G48" s="18">
-        <v>954000</v>
+        <v>978500</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1932,19 +1938,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="F49" s="18">
-        <v>38160</v>
+        <v>48734</v>
       </c>
       <c r="G49" s="18">
-        <v>954000</v>
+        <v>978500</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -1955,19 +1961,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F50" s="18">
-        <v>38160</v>
+        <v>154666</v>
       </c>
       <c r="G50" s="18">
-        <v>954000</v>
+        <v>4000000</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -1978,19 +1984,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F51" s="18">
-        <v>38160</v>
+        <v>64000</v>
       </c>
       <c r="G51" s="18">
-        <v>954000</v>
+        <v>1600000</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2001,19 +2007,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F52" s="18">
-        <v>51200</v>
+        <v>64000</v>
       </c>
       <c r="G52" s="18">
-        <v>1280000</v>
+        <v>1600000</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2024,19 +2030,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F53" s="18">
-        <v>38160</v>
+        <v>64000</v>
       </c>
       <c r="G53" s="18">
-        <v>954000</v>
+        <v>1600000</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2047,19 +2053,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D54" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="17" t="s">
-        <v>48</v>
-      </c>
       <c r="E54" s="16" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F54" s="18">
-        <v>216000</v>
+        <v>64000</v>
       </c>
       <c r="G54" s="18">
-        <v>5400000</v>
+        <v>1600000</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2070,19 +2076,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F55" s="18">
-        <v>38160</v>
+        <v>64000</v>
       </c>
       <c r="G55" s="18">
-        <v>954000</v>
+        <v>1600000</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2093,19 +2099,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F56" s="18">
-        <v>51200</v>
+        <v>64000</v>
       </c>
       <c r="G56" s="18">
-        <v>1280000</v>
+        <v>1600000</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2116,19 +2122,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D57" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D57" s="17" t="s">
-        <v>48</v>
-      </c>
       <c r="E57" s="16" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F57" s="18">
-        <v>216000</v>
+        <v>64000</v>
       </c>
       <c r="G57" s="18">
-        <v>5400000</v>
+        <v>1600000</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2139,19 +2145,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F58" s="18">
-        <v>38160</v>
+        <v>61866</v>
       </c>
       <c r="G58" s="18">
-        <v>954000</v>
+        <v>1600000</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2162,19 +2168,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="E59" s="16" t="s">
         <v>50</v>
       </c>
       <c r="F59" s="18">
-        <v>51200</v>
+        <v>24000</v>
       </c>
       <c r="G59" s="18">
-        <v>1280000</v>
+        <v>900000</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2185,19 +2191,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="F60" s="18">
-        <v>216000</v>
+        <v>48000</v>
       </c>
       <c r="G60" s="18">
-        <v>5400000</v>
+        <v>1236000</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2208,19 +2214,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="F61" s="18">
-        <v>38160</v>
+        <v>29867</v>
       </c>
       <c r="G61" s="18">
-        <v>954000</v>
+        <v>1400000</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2231,19 +2237,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="F62" s="18">
-        <v>216000</v>
+        <v>56000</v>
       </c>
       <c r="G62" s="18">
-        <v>5400000</v>
+        <v>1400000</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2254,19 +2260,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="F63" s="18">
-        <v>51200</v>
+        <v>56000</v>
       </c>
       <c r="G63" s="18">
-        <v>1280000</v>
+        <v>1400000</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2277,19 +2283,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="F64" s="18">
-        <v>38160</v>
+        <v>56000</v>
       </c>
       <c r="G64" s="18">
-        <v>954000</v>
+        <v>1400000</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2300,19 +2306,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="F65" s="18">
-        <v>51200</v>
+        <v>56000</v>
       </c>
       <c r="G65" s="18">
-        <v>1280000</v>
+        <v>1400000</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2323,19 +2329,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="F66" s="18">
-        <v>216000</v>
+        <v>56000</v>
       </c>
       <c r="G66" s="18">
-        <v>5400000</v>
+        <v>1400000</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2346,19 +2352,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="F67" s="18">
-        <v>51200</v>
+        <v>56000</v>
       </c>
       <c r="G67" s="18">
-        <v>1280000</v>
+        <v>1400000</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2369,19 +2375,19 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="F68" s="18">
-        <v>216000</v>
+        <v>64000</v>
       </c>
       <c r="G68" s="18">
-        <v>5400000</v>
+        <v>1600000</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2392,19 +2398,19 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="F69" s="18">
-        <v>38160</v>
+        <v>64000</v>
       </c>
       <c r="G69" s="18">
-        <v>954000</v>
+        <v>1600000</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2415,19 +2421,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="F70" s="18">
-        <v>51200</v>
+        <v>64000</v>
       </c>
       <c r="G70" s="18">
-        <v>1280000</v>
+        <v>1600000</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2438,19 +2444,19 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="F71" s="18">
-        <v>38160</v>
+        <v>64000</v>
       </c>
       <c r="G71" s="18">
-        <v>954000</v>
+        <v>1600000</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2461,19 +2467,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="F72" s="18">
-        <v>216000</v>
+        <v>46933</v>
       </c>
       <c r="G72" s="18">
-        <v>5400000</v>
+        <v>1600000</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2484,19 +2490,19 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="F73" s="18">
-        <v>38160</v>
+        <v>112000</v>
       </c>
       <c r="G73" s="18">
-        <v>954000</v>
+        <v>2800000</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2507,19 +2513,19 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="F74" s="18">
-        <v>51200</v>
+        <v>112000</v>
       </c>
       <c r="G74" s="18">
-        <v>1280000</v>
+        <v>2800000</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2530,19 +2536,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F75" s="18">
-        <v>216000</v>
+        <v>112000</v>
       </c>
       <c r="G75" s="18">
-        <v>5400000</v>
+        <v>2800000</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2553,19 +2559,19 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="F76" s="18">
-        <v>216000</v>
+        <v>112000</v>
       </c>
       <c r="G76" s="18">
-        <v>5400000</v>
+        <v>2800000</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2576,19 +2582,19 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F77" s="18">
-        <v>51200</v>
+        <v>67840</v>
       </c>
       <c r="G77" s="18">
-        <v>1280000</v>
+        <v>1696000</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -2599,19 +2605,19 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="F78" s="18">
-        <v>38160</v>
+        <v>67840</v>
       </c>
       <c r="G78" s="18">
-        <v>954000</v>
+        <v>1696000</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2622,19 +2628,19 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="F79" s="18">
-        <v>38160</v>
+        <v>67840</v>
       </c>
       <c r="G79" s="18">
-        <v>954000</v>
+        <v>1696000</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2645,19 +2651,19 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F80" s="18">
-        <v>51200</v>
+        <v>33920</v>
       </c>
       <c r="G80" s="18">
-        <v>1280000</v>
+        <v>1696000</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2668,19 +2674,19 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="F81" s="18">
-        <v>216000</v>
+        <v>27307</v>
       </c>
       <c r="G81" s="18">
-        <v>5400000</v>
+        <v>1280000</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2691,19 +2697,19 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="F82" s="18">
-        <v>38160</v>
+        <v>51200</v>
       </c>
       <c r="G82" s="18">
-        <v>954000</v>
+        <v>1280000</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2714,13 +2720,13 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="F83" s="18">
         <v>51200</v>
@@ -2737,19 +2743,19 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="F84" s="18">
-        <v>216000</v>
+        <v>51200</v>
       </c>
       <c r="G84" s="18">
-        <v>5400000</v>
+        <v>1280000</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -2760,19 +2766,19 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="F85" s="18">
-        <v>38160</v>
+        <v>51200</v>
       </c>
       <c r="G85" s="18">
-        <v>954000</v>
+        <v>1280000</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -2783,13 +2789,13 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="F86" s="18">
         <v>51200</v>
@@ -2806,19 +2812,19 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="F87" s="18">
-        <v>216000</v>
+        <v>51200</v>
       </c>
       <c r="G87" s="18">
-        <v>5400000</v>
+        <v>1280000</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -2829,19 +2835,19 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="F88" s="18">
-        <v>48734</v>
+        <v>51200</v>
       </c>
       <c r="G88" s="18">
-        <v>2150000</v>
+        <v>1280000</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
@@ -2852,13 +2858,13 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="F89" s="18">
         <v>51200</v>
@@ -2875,19 +2881,19 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="F90" s="18">
-        <v>38160</v>
+        <v>51200</v>
       </c>
       <c r="G90" s="18">
-        <v>954000</v>
+        <v>1280000</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -2898,19 +2904,19 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="F91" s="18">
-        <v>216000</v>
+        <v>51200</v>
       </c>
       <c r="G91" s="18">
-        <v>5400000</v>
+        <v>1280000</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
@@ -2921,19 +2927,19 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D92" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E92" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D92" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E92" s="16" t="s">
-        <v>63</v>
-      </c>
       <c r="F92" s="18">
-        <v>38160</v>
+        <v>51200</v>
       </c>
       <c r="G92" s="18">
-        <v>954000</v>
+        <v>1280000</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -2944,19 +2950,19 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="F93" s="18">
-        <v>216000</v>
+        <v>51200</v>
       </c>
       <c r="G93" s="18">
-        <v>5400000</v>
+        <v>1280000</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
@@ -2967,13 +2973,13 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="F94" s="18">
         <v>51200</v>
@@ -2990,13 +2996,13 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="F95" s="18">
         <v>51200</v>
@@ -3013,19 +3019,19 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="F96" s="18">
-        <v>216000</v>
+        <v>51200</v>
       </c>
       <c r="G96" s="18">
-        <v>5400000</v>
+        <v>1280000</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -3036,19 +3042,19 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="F97" s="18">
-        <v>38160</v>
+        <v>51200</v>
       </c>
       <c r="G97" s="18">
-        <v>954000</v>
+        <v>1280000</v>
       </c>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
@@ -3059,13 +3065,13 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="F98" s="18">
         <v>51200</v>
@@ -3082,19 +3088,19 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="F99" s="18">
-        <v>86000</v>
+        <v>115200</v>
       </c>
       <c r="G99" s="18">
-        <v>2150000</v>
+        <v>5400000</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
@@ -3105,13 +3111,13 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="F100" s="18">
         <v>216000</v>
@@ -3128,19 +3134,19 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="F101" s="18">
-        <v>38160</v>
+        <v>216000</v>
       </c>
       <c r="G101" s="18">
-        <v>954000</v>
+        <v>5400000</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
@@ -3151,19 +3157,19 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="F102" s="18">
-        <v>51200</v>
+        <v>216000</v>
       </c>
       <c r="G102" s="18">
-        <v>1280000</v>
+        <v>5400000</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -3174,19 +3180,19 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="F103" s="18">
-        <v>86000</v>
+        <v>216000</v>
       </c>
       <c r="G103" s="18">
-        <v>2150000</v>
+        <v>5400000</v>
       </c>
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
@@ -3197,13 +3203,13 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="F104" s="18">
         <v>216000</v>
@@ -3220,19 +3226,19 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="F105" s="18">
-        <v>38160</v>
+        <v>216000</v>
       </c>
       <c r="G105" s="18">
-        <v>954000</v>
+        <v>5400000</v>
       </c>
       <c r="H105" s="19"/>
       <c r="I105" s="19"/>
@@ -3243,19 +3249,19 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="F106" s="18">
-        <v>27307</v>
+        <v>216000</v>
       </c>
       <c r="G106" s="18">
-        <v>1280000</v>
+        <v>5400000</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
@@ -3266,16 +3272,16 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="F107" s="18">
-        <v>115200</v>
+        <v>216000</v>
       </c>
       <c r="G107" s="18">
         <v>5400000</v>
@@ -3289,75 +3295,236 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="F108" s="18">
-        <v>20352</v>
+        <v>216000</v>
       </c>
       <c r="G108" s="18">
-        <v>954000</v>
+        <v>5400000</v>
       </c>
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
       <c r="J108" s="20"/>
     </row>
     <row r="109" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B109" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C109" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="D109" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="E109" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="F109" s="24">
-        <v>45867</v>
-      </c>
-      <c r="G109" s="24">
-        <v>2150000</v>
-      </c>
-      <c r="H109" s="25"/>
-      <c r="I109" s="25"/>
-      <c r="J109" s="26"/>
+      <c r="B109" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D109" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E109" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F109" s="18">
+        <v>216000</v>
+      </c>
+      <c r="G109" s="18">
+        <v>5400000</v>
+      </c>
+      <c r="H109" s="19"/>
+      <c r="I109" s="19"/>
+      <c r="J109" s="20"/>
+    </row>
+    <row r="110" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B110" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C110" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D110" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E110" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F110" s="18">
+        <v>216000</v>
+      </c>
+      <c r="G110" s="18">
+        <v>5400000</v>
+      </c>
+      <c r="H110" s="19"/>
+      <c r="I110" s="19"/>
+      <c r="J110" s="20"/>
+    </row>
+    <row r="111" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B111" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C111" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D111" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E111" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F111" s="18">
+        <v>216000</v>
+      </c>
+      <c r="G111" s="18">
+        <v>5400000</v>
+      </c>
+      <c r="H111" s="19"/>
+      <c r="I111" s="19"/>
+      <c r="J111" s="20"/>
+    </row>
+    <row r="112" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B112" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C112" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D112" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E112" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F112" s="18">
+        <v>216000</v>
+      </c>
+      <c r="G112" s="18">
+        <v>5400000</v>
+      </c>
+      <c r="H112" s="19"/>
+      <c r="I112" s="19"/>
+      <c r="J112" s="20"/>
+    </row>
+    <row r="113" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B113" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C113" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D113" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E113" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F113" s="18">
+        <v>216000</v>
+      </c>
+      <c r="G113" s="18">
+        <v>5400000</v>
+      </c>
+      <c r="H113" s="19"/>
+      <c r="I113" s="19"/>
+      <c r="J113" s="20"/>
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B114" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="C114" s="32"/>
-      <c r="H114" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I114" s="1"/>
-      <c r="J114" s="1"/>
+      <c r="B114" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C114" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D114" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E114" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F114" s="18">
+        <v>216000</v>
+      </c>
+      <c r="G114" s="18">
+        <v>5400000</v>
+      </c>
+      <c r="H114" s="19"/>
+      <c r="I114" s="19"/>
+      <c r="J114" s="20"/>
     </row>
     <row r="115" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B115" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="C115" s="32"/>
-      <c r="H115" s="1" t="s">
+      <c r="B115" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C115" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D115" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E115" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F115" s="18">
+        <v>216000</v>
+      </c>
+      <c r="G115" s="18">
+        <v>5400000</v>
+      </c>
+      <c r="H115" s="19"/>
+      <c r="I115" s="19"/>
+      <c r="J115" s="20"/>
+    </row>
+    <row r="116" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B116" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C116" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D116" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E116" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F116" s="24">
+        <v>216000</v>
+      </c>
+      <c r="G116" s="24">
+        <v>5400000</v>
+      </c>
+      <c r="H116" s="25"/>
+      <c r="I116" s="25"/>
+      <c r="J116" s="26"/>
+    </row>
+    <row r="121" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B121" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="C121" s="32"/>
+      <c r="H121" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I121" s="1"/>
+      <c r="J121" s="1"/>
+    </row>
+    <row r="122" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B122" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="I115" s="1"/>
-      <c r="J115" s="1"/>
+      <c r="C122" s="32"/>
+      <c r="H122" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I122" s="1"/>
+      <c r="J122" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="H115:J115"/>
-    <mergeCell ref="H114:J114"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="H122:J122"/>
+    <mergeCell ref="H121:J121"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9004785918.xlsx
+++ b/Data/EC/NIT-9004785918.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C67DC0D5-282F-4AE5-A484-4F3188A36798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7146CFB3-C592-4F5F-91BE-62EAA0EC7B5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{505CF43B-3B10-4B41-9416-BA0C865EA225}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D6DA3134-5C12-4F4E-9019-8BA1DECDD823}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="79">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,187 +65,181 @@
     <t>CC</t>
   </si>
   <si>
+    <t>77193394</t>
+  </si>
+  <si>
+    <t>CARLOS ANDRES MENDOZA RONDON</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1072744798</t>
+  </si>
+  <si>
+    <t>JORGE LUIS BELTRAN CADENA</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>85461168</t>
+  </si>
+  <si>
+    <t>ELKIN ENRIQUE ALVAREZ SIERRA</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
     <t>3830221</t>
   </si>
   <si>
     <t>JORGE MARIO RAMOS VELEZ</t>
   </si>
   <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1065621749</t>
+  </si>
+  <si>
+    <t>INDIRA PAOLA FLOREZ CANTILLO</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1140865460</t>
+  </si>
+  <si>
+    <t>HUGO ALBERTO MOLINA DIAZ</t>
+  </si>
+  <si>
+    <t>10301758</t>
+  </si>
+  <si>
+    <t>VICTOR DANIEL BETANCOURT OTERO</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1064111156</t>
+  </si>
+  <si>
+    <t>ALVARO LUIS ROMERO NAVAS</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>1119838865</t>
+  </si>
+  <si>
+    <t>ENRIQUE JAIME ROMERO SOLANO</t>
+  </si>
+  <si>
+    <t>9143885</t>
+  </si>
+  <si>
+    <t>EIDYS JOSE PIÑERES TOVAR</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>1050037189</t>
+  </si>
+  <si>
+    <t>ERIS MIGUEL CARBAL GARCIA</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
     <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1050037189</t>
-  </si>
-  <si>
-    <t>ERIS MIGUEL CARBAL GARCIA</t>
-  </si>
-  <si>
-    <t>77193394</t>
-  </si>
-  <si>
-    <t>CARLOS ANDRES MENDOZA RONDON</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1072744798</t>
-  </si>
-  <si>
-    <t>JORGE LUIS BELTRAN CADENA</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>85461168</t>
-  </si>
-  <si>
-    <t>ELKIN ENRIQUE ALVAREZ SIERRA</t>
-  </si>
-  <si>
-    <t>1064111156</t>
-  </si>
-  <si>
-    <t>ALVARO LUIS ROMERO NAVAS</t>
-  </si>
-  <si>
-    <t>72271117</t>
-  </si>
-  <si>
-    <t>LUIS MIGUEL SUAREZ ROBLES</t>
-  </si>
-  <si>
-    <t>1065621749</t>
-  </si>
-  <si>
-    <t>INDIRA PAOLA FLOREZ CANTILLO</t>
-  </si>
-  <si>
-    <t>1140865460</t>
-  </si>
-  <si>
-    <t>HUGO ALBERTO MOLINA DIAZ</t>
-  </si>
-  <si>
-    <t>10301758</t>
-  </si>
-  <si>
-    <t>VICTOR DANIEL BETANCOURT OTERO</t>
-  </si>
-  <si>
-    <t>1119838865</t>
-  </si>
-  <si>
-    <t>ENRIQUE JAIME ROMERO SOLANO</t>
-  </si>
-  <si>
-    <t>9143885</t>
-  </si>
-  <si>
-    <t>EIDYS JOSE PIÑERES TOVAR</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -344,7 +338,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -357,9 +353,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -559,23 +553,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -603,10 +597,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -659,7 +653,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28DC5C58-364C-6DEE-B459-E04FE8A0F8E0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E92AC707-BEDE-4103-1F59-0C5D48F15D74}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1010,8 +1004,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C986B23C-BAD8-4E3A-B255-1F44A1F7AD34}">
-  <dimension ref="B2:J122"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{135E178F-CD37-4F86-9C8A-DD8924572D65}">
+  <dimension ref="B2:J115"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1035,7 +1029,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1080,7 +1074,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1112,12 +1106,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>8169272</v>
+        <v>7803405</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1128,14 +1122,14 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C13" s="5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F13" s="5">
         <v>37</v>
@@ -1165,13 +1159,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I15" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="J15" s="14" t="s">
         <v>75</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1188,10 +1182,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>20352</v>
+        <v>154666</v>
       </c>
       <c r="G16" s="18">
-        <v>954000</v>
+        <v>4000000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1202,19 +1196,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>38160</v>
+        <v>61866</v>
       </c>
       <c r="G17" s="18">
-        <v>954000</v>
+        <v>1600000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1225,19 +1219,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F18" s="18">
-        <v>38160</v>
+        <v>64000</v>
       </c>
       <c r="G18" s="18">
-        <v>954000</v>
+        <v>1600000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1248,19 +1242,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F19" s="18">
-        <v>38160</v>
+        <v>64000</v>
       </c>
       <c r="G19" s="18">
-        <v>954000</v>
+        <v>1600000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1271,19 +1265,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F20" s="18">
-        <v>38160</v>
+        <v>64000</v>
       </c>
       <c r="G20" s="18">
-        <v>954000</v>
+        <v>1600000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1294,19 +1288,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F21" s="18">
-        <v>38160</v>
+        <v>24000</v>
       </c>
       <c r="G21" s="18">
-        <v>954000</v>
+        <v>900000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1317,19 +1311,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F22" s="18">
-        <v>38160</v>
+        <v>64000</v>
       </c>
       <c r="G22" s="18">
-        <v>954000</v>
+        <v>1600000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1340,19 +1334,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F23" s="18">
-        <v>38160</v>
+        <v>64000</v>
       </c>
       <c r="G23" s="18">
-        <v>954000</v>
+        <v>1600000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1363,13 +1357,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F24" s="18">
         <v>38160</v>
@@ -1386,19 +1380,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F25" s="18">
-        <v>38160</v>
+        <v>64000</v>
       </c>
       <c r="G25" s="18">
-        <v>954000</v>
+        <v>1600000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1409,13 +1403,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F26" s="18">
         <v>38160</v>
@@ -1432,19 +1426,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F27" s="18">
-        <v>38160</v>
+        <v>64000</v>
       </c>
       <c r="G27" s="18">
-        <v>954000</v>
+        <v>1600000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1455,13 +1449,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F28" s="18">
         <v>38160</v>
@@ -1478,19 +1472,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F29" s="18">
-        <v>38160</v>
+        <v>46933</v>
       </c>
       <c r="G29" s="18">
-        <v>954000</v>
+        <v>1600000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1501,13 +1495,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F30" s="18">
         <v>38160</v>
@@ -1524,19 +1518,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F31" s="18">
-        <v>38160</v>
+        <v>64000</v>
       </c>
       <c r="G31" s="18">
-        <v>954000</v>
+        <v>1600000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1547,19 +1541,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F32" s="18">
-        <v>38160</v>
+        <v>112000</v>
       </c>
       <c r="G32" s="18">
-        <v>954000</v>
+        <v>2800000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1570,19 +1564,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F33" s="18">
-        <v>38160</v>
+        <v>33920</v>
       </c>
       <c r="G33" s="18">
-        <v>954000</v>
+        <v>1696000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1593,13 +1587,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F34" s="18">
         <v>38160</v>
@@ -1616,19 +1610,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F35" s="18">
-        <v>38160</v>
+        <v>48000</v>
       </c>
       <c r="G35" s="18">
-        <v>954000</v>
+        <v>1236000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1639,19 +1633,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F36" s="18">
-        <v>38160</v>
+        <v>64000</v>
       </c>
       <c r="G36" s="18">
-        <v>954000</v>
+        <v>1600000</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1662,19 +1656,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F37" s="18">
-        <v>38160</v>
+        <v>112000</v>
       </c>
       <c r="G37" s="18">
-        <v>954000</v>
+        <v>2800000</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1685,19 +1679,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F38" s="18">
-        <v>38160</v>
+        <v>67840</v>
       </c>
       <c r="G38" s="18">
-        <v>954000</v>
+        <v>1696000</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1708,13 +1702,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F39" s="18">
         <v>38160</v>
@@ -1731,19 +1725,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F40" s="18">
-        <v>38160</v>
+        <v>64000</v>
       </c>
       <c r="G40" s="18">
-        <v>954000</v>
+        <v>1600000</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1754,19 +1748,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F41" s="18">
-        <v>38160</v>
+        <v>112000</v>
       </c>
       <c r="G41" s="18">
-        <v>954000</v>
+        <v>2800000</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1777,19 +1771,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E42" s="16" t="s">
         <v>37</v>
       </c>
       <c r="F42" s="18">
-        <v>38160</v>
+        <v>67840</v>
       </c>
       <c r="G42" s="18">
-        <v>954000</v>
+        <v>1696000</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1800,10 +1794,10 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E43" s="16" t="s">
         <v>38</v>
@@ -1823,19 +1817,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F44" s="18">
-        <v>38160</v>
+        <v>64000</v>
       </c>
       <c r="G44" s="18">
-        <v>954000</v>
+        <v>1600000</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1846,19 +1840,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F45" s="18">
-        <v>38160</v>
+        <v>112000</v>
       </c>
       <c r="G45" s="18">
-        <v>954000</v>
+        <v>2800000</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1869,19 +1863,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="F46" s="18">
-        <v>45867</v>
+        <v>67840</v>
       </c>
       <c r="G46" s="18">
-        <v>978500</v>
+        <v>1696000</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1892,19 +1886,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="F47" s="18">
-        <v>86000</v>
+        <v>38160</v>
       </c>
       <c r="G47" s="18">
-        <v>978500</v>
+        <v>954000</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1915,19 +1909,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="F48" s="18">
-        <v>86000</v>
+        <v>38160</v>
       </c>
       <c r="G48" s="18">
-        <v>978500</v>
+        <v>954000</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1938,19 +1932,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E49" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D49" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E49" s="16" t="s">
-        <v>16</v>
-      </c>
       <c r="F49" s="18">
-        <v>48734</v>
+        <v>38160</v>
       </c>
       <c r="G49" s="18">
-        <v>978500</v>
+        <v>954000</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -1961,19 +1955,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F50" s="18">
-        <v>154666</v>
+        <v>38160</v>
       </c>
       <c r="G50" s="18">
-        <v>4000000</v>
+        <v>954000</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -1984,19 +1978,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F51" s="18">
-        <v>64000</v>
+        <v>38160</v>
       </c>
       <c r="G51" s="18">
-        <v>1600000</v>
+        <v>954000</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2007,19 +2001,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F52" s="18">
-        <v>64000</v>
+        <v>38160</v>
       </c>
       <c r="G52" s="18">
-        <v>1600000</v>
+        <v>954000</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2030,19 +2024,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D53" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D53" s="17" t="s">
-        <v>47</v>
-      </c>
       <c r="E53" s="16" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F53" s="18">
-        <v>64000</v>
+        <v>51200</v>
       </c>
       <c r="G53" s="18">
-        <v>1600000</v>
+        <v>1280000</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2053,19 +2047,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F54" s="18">
-        <v>64000</v>
+        <v>216000</v>
       </c>
       <c r="G54" s="18">
-        <v>1600000</v>
+        <v>5400000</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2076,19 +2070,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F55" s="18">
-        <v>64000</v>
+        <v>38160</v>
       </c>
       <c r="G55" s="18">
-        <v>1600000</v>
+        <v>954000</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2099,19 +2093,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D56" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D56" s="17" t="s">
-        <v>47</v>
-      </c>
       <c r="E56" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F56" s="18">
-        <v>64000</v>
+        <v>51200</v>
       </c>
       <c r="G56" s="18">
-        <v>1600000</v>
+        <v>1280000</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2122,19 +2116,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F57" s="18">
-        <v>64000</v>
+        <v>216000</v>
       </c>
       <c r="G57" s="18">
-        <v>1600000</v>
+        <v>5400000</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2145,19 +2139,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F58" s="18">
-        <v>61866</v>
+        <v>38160</v>
       </c>
       <c r="G58" s="18">
-        <v>1600000</v>
+        <v>954000</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2168,19 +2162,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E59" s="16" t="s">
         <v>50</v>
       </c>
       <c r="F59" s="18">
-        <v>24000</v>
+        <v>51200</v>
       </c>
       <c r="G59" s="18">
-        <v>900000</v>
+        <v>1280000</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2191,19 +2185,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="F60" s="18">
-        <v>48000</v>
+        <v>216000</v>
       </c>
       <c r="G60" s="18">
-        <v>1236000</v>
+        <v>5400000</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2214,19 +2208,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="F61" s="18">
-        <v>29867</v>
+        <v>38160</v>
       </c>
       <c r="G61" s="18">
-        <v>1400000</v>
+        <v>954000</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2237,19 +2231,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="F62" s="18">
-        <v>56000</v>
+        <v>51200</v>
       </c>
       <c r="G62" s="18">
-        <v>1400000</v>
+        <v>1280000</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2260,19 +2254,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="F63" s="18">
-        <v>56000</v>
+        <v>216000</v>
       </c>
       <c r="G63" s="18">
-        <v>1400000</v>
+        <v>5400000</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2283,19 +2277,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="F64" s="18">
-        <v>56000</v>
+        <v>38160</v>
       </c>
       <c r="G64" s="18">
-        <v>1400000</v>
+        <v>954000</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2306,19 +2300,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="F65" s="18">
-        <v>56000</v>
+        <v>51200</v>
       </c>
       <c r="G65" s="18">
-        <v>1400000</v>
+        <v>1280000</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2329,19 +2323,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="F66" s="18">
-        <v>56000</v>
+        <v>216000</v>
       </c>
       <c r="G66" s="18">
-        <v>1400000</v>
+        <v>5400000</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2352,19 +2346,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="F67" s="18">
-        <v>56000</v>
+        <v>38160</v>
       </c>
       <c r="G67" s="18">
-        <v>1400000</v>
+        <v>954000</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2375,19 +2369,19 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="F68" s="18">
-        <v>64000</v>
+        <v>51200</v>
       </c>
       <c r="G68" s="18">
-        <v>1600000</v>
+        <v>1280000</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2398,19 +2392,19 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="F69" s="18">
-        <v>64000</v>
+        <v>216000</v>
       </c>
       <c r="G69" s="18">
-        <v>1600000</v>
+        <v>5400000</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2421,19 +2415,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="F70" s="18">
-        <v>64000</v>
+        <v>38160</v>
       </c>
       <c r="G70" s="18">
-        <v>1600000</v>
+        <v>954000</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2444,19 +2438,19 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="F71" s="18">
-        <v>64000</v>
+        <v>51200</v>
       </c>
       <c r="G71" s="18">
-        <v>1600000</v>
+        <v>1280000</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2467,19 +2461,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="F72" s="18">
-        <v>46933</v>
+        <v>216000</v>
       </c>
       <c r="G72" s="18">
-        <v>1600000</v>
+        <v>5400000</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2490,19 +2484,19 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="F73" s="18">
-        <v>112000</v>
+        <v>38160</v>
       </c>
       <c r="G73" s="18">
-        <v>2800000</v>
+        <v>954000</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2513,19 +2507,19 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="F74" s="18">
-        <v>112000</v>
+        <v>51200</v>
       </c>
       <c r="G74" s="18">
-        <v>2800000</v>
+        <v>1280000</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2536,19 +2530,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="F75" s="18">
-        <v>112000</v>
+        <v>216000</v>
       </c>
       <c r="G75" s="18">
-        <v>2800000</v>
+        <v>5400000</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2559,19 +2553,19 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="F76" s="18">
-        <v>112000</v>
+        <v>38160</v>
       </c>
       <c r="G76" s="18">
-        <v>2800000</v>
+        <v>954000</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2582,19 +2576,19 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="F77" s="18">
-        <v>67840</v>
+        <v>51200</v>
       </c>
       <c r="G77" s="18">
-        <v>1696000</v>
+        <v>1280000</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -2605,19 +2599,19 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="F78" s="18">
-        <v>67840</v>
+        <v>216000</v>
       </c>
       <c r="G78" s="18">
-        <v>1696000</v>
+        <v>5400000</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2628,19 +2622,19 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="F79" s="18">
-        <v>67840</v>
+        <v>38160</v>
       </c>
       <c r="G79" s="18">
-        <v>1696000</v>
+        <v>954000</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2651,19 +2645,19 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="F80" s="18">
-        <v>33920</v>
+        <v>51200</v>
       </c>
       <c r="G80" s="18">
-        <v>1696000</v>
+        <v>1280000</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2674,19 +2668,19 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="F81" s="18">
-        <v>27307</v>
+        <v>216000</v>
       </c>
       <c r="G81" s="18">
-        <v>1280000</v>
+        <v>5400000</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2697,19 +2691,19 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="F82" s="18">
-        <v>51200</v>
+        <v>38160</v>
       </c>
       <c r="G82" s="18">
-        <v>1280000</v>
+        <v>954000</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2720,13 +2714,13 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="F83" s="18">
         <v>51200</v>
@@ -2743,19 +2737,19 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="F84" s="18">
-        <v>51200</v>
+        <v>216000</v>
       </c>
       <c r="G84" s="18">
-        <v>1280000</v>
+        <v>5400000</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -2766,19 +2760,19 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="F85" s="18">
-        <v>51200</v>
+        <v>38160</v>
       </c>
       <c r="G85" s="18">
-        <v>1280000</v>
+        <v>954000</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -2789,13 +2783,13 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="F86" s="18">
         <v>51200</v>
@@ -2812,19 +2806,19 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="F87" s="18">
-        <v>51200</v>
+        <v>216000</v>
       </c>
       <c r="G87" s="18">
-        <v>1280000</v>
+        <v>5400000</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -2835,19 +2829,19 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="F88" s="18">
-        <v>51200</v>
+        <v>38160</v>
       </c>
       <c r="G88" s="18">
-        <v>1280000</v>
+        <v>954000</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
@@ -2858,19 +2852,19 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="F89" s="18">
-        <v>51200</v>
+        <v>48734</v>
       </c>
       <c r="G89" s="18">
-        <v>1280000</v>
+        <v>2150000</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -2881,13 +2875,13 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="F90" s="18">
         <v>51200</v>
@@ -2904,19 +2898,19 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="F91" s="18">
-        <v>51200</v>
+        <v>216000</v>
       </c>
       <c r="G91" s="18">
-        <v>1280000</v>
+        <v>5400000</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
@@ -2927,19 +2921,19 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="F92" s="18">
-        <v>51200</v>
+        <v>38160</v>
       </c>
       <c r="G92" s="18">
-        <v>1280000</v>
+        <v>954000</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -2950,13 +2944,13 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="F93" s="18">
         <v>51200</v>
@@ -2973,19 +2967,19 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="F94" s="18">
-        <v>51200</v>
+        <v>216000</v>
       </c>
       <c r="G94" s="18">
-        <v>1280000</v>
+        <v>5400000</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
@@ -2996,19 +2990,19 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="F95" s="18">
-        <v>51200</v>
+        <v>38160</v>
       </c>
       <c r="G95" s="18">
-        <v>1280000</v>
+        <v>954000</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -3019,13 +3013,13 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="F96" s="18">
         <v>51200</v>
@@ -3042,19 +3036,19 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="F97" s="18">
-        <v>51200</v>
+        <v>216000</v>
       </c>
       <c r="G97" s="18">
-        <v>1280000</v>
+        <v>5400000</v>
       </c>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
@@ -3065,19 +3059,19 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="F98" s="18">
-        <v>51200</v>
+        <v>38160</v>
       </c>
       <c r="G98" s="18">
-        <v>1280000</v>
+        <v>954000</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3088,19 +3082,19 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="F99" s="18">
-        <v>115200</v>
+        <v>86000</v>
       </c>
       <c r="G99" s="18">
-        <v>5400000</v>
+        <v>2150000</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
@@ -3111,19 +3105,19 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="F100" s="18">
-        <v>216000</v>
+        <v>51200</v>
       </c>
       <c r="G100" s="18">
-        <v>5400000</v>
+        <v>1280000</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
@@ -3134,13 +3128,13 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="F101" s="18">
         <v>216000</v>
@@ -3157,19 +3151,19 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="F102" s="18">
-        <v>216000</v>
+        <v>38160</v>
       </c>
       <c r="G102" s="18">
-        <v>5400000</v>
+        <v>954000</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -3180,19 +3174,19 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="F103" s="18">
-        <v>216000</v>
+        <v>86000</v>
       </c>
       <c r="G103" s="18">
-        <v>5400000</v>
+        <v>2150000</v>
       </c>
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
@@ -3203,19 +3197,19 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="F104" s="18">
-        <v>216000</v>
+        <v>51200</v>
       </c>
       <c r="G104" s="18">
-        <v>5400000</v>
+        <v>1280000</v>
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
@@ -3226,13 +3220,13 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="F105" s="18">
         <v>216000</v>
@@ -3249,19 +3243,19 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="F106" s="18">
-        <v>216000</v>
+        <v>20352</v>
       </c>
       <c r="G106" s="18">
-        <v>5400000</v>
+        <v>954000</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
@@ -3272,19 +3266,19 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="F107" s="18">
-        <v>216000</v>
+        <v>45867</v>
       </c>
       <c r="G107" s="18">
-        <v>5400000</v>
+        <v>2150000</v>
       </c>
       <c r="H107" s="19"/>
       <c r="I107" s="19"/>
@@ -3295,236 +3289,75 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="F108" s="18">
-        <v>216000</v>
+        <v>27307</v>
       </c>
       <c r="G108" s="18">
-        <v>5400000</v>
+        <v>1280000</v>
       </c>
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
       <c r="J108" s="20"/>
     </row>
     <row r="109" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B109" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C109" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D109" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E109" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F109" s="18">
-        <v>216000</v>
-      </c>
-      <c r="G109" s="18">
+      <c r="B109" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D109" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E109" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="F109" s="24">
+        <v>115200</v>
+      </c>
+      <c r="G109" s="24">
         <v>5400000</v>
       </c>
-      <c r="H109" s="19"/>
-      <c r="I109" s="19"/>
-      <c r="J109" s="20"/>
-    </row>
-    <row r="110" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B110" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C110" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D110" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E110" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F110" s="18">
-        <v>216000</v>
-      </c>
-      <c r="G110" s="18">
-        <v>5400000</v>
-      </c>
-      <c r="H110" s="19"/>
-      <c r="I110" s="19"/>
-      <c r="J110" s="20"/>
-    </row>
-    <row r="111" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B111" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C111" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D111" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E111" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F111" s="18">
-        <v>216000</v>
-      </c>
-      <c r="G111" s="18">
-        <v>5400000</v>
-      </c>
-      <c r="H111" s="19"/>
-      <c r="I111" s="19"/>
-      <c r="J111" s="20"/>
-    </row>
-    <row r="112" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B112" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C112" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D112" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E112" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F112" s="18">
-        <v>216000</v>
-      </c>
-      <c r="G112" s="18">
-        <v>5400000</v>
-      </c>
-      <c r="H112" s="19"/>
-      <c r="I112" s="19"/>
-      <c r="J112" s="20"/>
-    </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B113" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C113" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D113" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E113" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F113" s="18">
-        <v>216000</v>
-      </c>
-      <c r="G113" s="18">
-        <v>5400000</v>
-      </c>
-      <c r="H113" s="19"/>
-      <c r="I113" s="19"/>
-      <c r="J113" s="20"/>
+      <c r="H109" s="25"/>
+      <c r="I109" s="25"/>
+      <c r="J109" s="26"/>
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B114" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C114" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D114" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E114" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F114" s="18">
-        <v>216000</v>
-      </c>
-      <c r="G114" s="18">
-        <v>5400000</v>
-      </c>
-      <c r="H114" s="19"/>
-      <c r="I114" s="19"/>
-      <c r="J114" s="20"/>
+      <c r="B114" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C114" s="32"/>
+      <c r="H114" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I114" s="1"/>
+      <c r="J114" s="1"/>
     </row>
     <row r="115" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B115" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C115" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D115" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E115" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F115" s="18">
-        <v>216000</v>
-      </c>
-      <c r="G115" s="18">
-        <v>5400000</v>
-      </c>
-      <c r="H115" s="19"/>
-      <c r="I115" s="19"/>
-      <c r="J115" s="20"/>
-    </row>
-    <row r="116" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B116" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C116" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D116" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="E116" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="F116" s="24">
-        <v>216000</v>
-      </c>
-      <c r="G116" s="24">
-        <v>5400000</v>
-      </c>
-      <c r="H116" s="25"/>
-      <c r="I116" s="25"/>
-      <c r="J116" s="26"/>
-    </row>
-    <row r="121" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B121" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="C121" s="32"/>
-      <c r="H121" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I121" s="1"/>
-      <c r="J121" s="1"/>
-    </row>
-    <row r="122" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B122" s="32" t="s">
+      <c r="B115" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="C115" s="32"/>
+      <c r="H115" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C122" s="32"/>
-      <c r="H122" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I122" s="1"/>
-      <c r="J122" s="1"/>
+      <c r="I115" s="1"/>
+      <c r="J115" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="H122:J122"/>
-    <mergeCell ref="H121:J121"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="H115:J115"/>
+    <mergeCell ref="H114:J114"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
